--- a/database - circanual/percentage offspring/SM2-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/SM2-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -1,21 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/database - circanual/percentage offspring/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2413DFD98F79A8D366075C52F37BD2728A43745A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369666B1-B9A3-4A9A-9E65-DDD653BF85CB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+  <si>
+    <t>BirthMonth_Dam</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Year_Period</t>
+  </si>
+  <si>
+    <t>2000-2004</t>
+  </si>
+  <si>
+    <t>2005-2009</t>
+  </si>
+  <si>
+    <t>2010-2014</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,132 +425,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>BirthMonth_Dam</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Year_Period</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.94642857142857</v>
+        <v>12.946428571428569</v>
       </c>
       <c r="C2">
-        <v>6.696428571428571</v>
+        <v>6.6964285714285712</v>
       </c>
       <c r="D2">
-        <v>6.696428571428571</v>
+        <v>6.6964285714285712</v>
       </c>
       <c r="E2">
-        <v>8.035714285714286</v>
+        <v>8.0357142857142865</v>
       </c>
       <c r="F2">
-        <v>8.482142857142858</v>
+        <v>8.4821428571428577</v>
       </c>
       <c r="G2">
-        <v>9.821428571428571</v>
+        <v>9.8214285714285712</v>
       </c>
       <c r="H2">
-        <v>6.696428571428571</v>
+        <v>6.6964285714285712</v>
       </c>
       <c r="I2">
-        <v>8.482142857142858</v>
+        <v>8.4821428571428577</v>
       </c>
       <c r="J2">
-        <v>12.05357142857143</v>
+        <v>12.053571428571431</v>
       </c>
       <c r="K2">
-        <v>7.142857142857142</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="L2">
-        <v>4.017857142857143</v>
+        <v>4.0178571428571432</v>
       </c>
       <c r="M2">
-        <v>8.928571428571429</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -483,101 +530,95 @@
         <v>11.05769230769231</v>
       </c>
       <c r="C3">
-        <v>9.615384615384617</v>
+        <v>9.6153846153846168</v>
       </c>
       <c r="D3">
         <v>14.42307692307692</v>
       </c>
       <c r="E3">
-        <v>7.211538461538461</v>
+        <v>7.2115384615384608</v>
       </c>
       <c r="F3">
-        <v>7.692307692307693</v>
+        <v>7.6923076923076934</v>
       </c>
       <c r="G3">
-        <v>9.134615384615383</v>
+        <v>9.1346153846153832</v>
       </c>
       <c r="H3">
-        <v>8.653846153846153</v>
+        <v>8.6538461538461533</v>
       </c>
       <c r="I3">
-        <v>4.326923076923077</v>
+        <v>4.3269230769230766</v>
       </c>
       <c r="J3">
-        <v>5.288461538461538</v>
+        <v>5.2884615384615383</v>
       </c>
       <c r="K3">
-        <v>7.211538461538461</v>
+        <v>7.2115384615384608</v>
       </c>
       <c r="L3">
         <v>6.25</v>
       </c>
       <c r="M3">
-        <v>9.134615384615383</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+        <v>9.1346153846153832</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.25641025641026</v>
+        <v>10.256410256410261</v>
       </c>
       <c r="C5">
-        <v>8.678500986193294</v>
+        <v>8.6785009861932938</v>
       </c>
       <c r="D5">
-        <v>7.100591715976331</v>
+        <v>7.1005917159763312</v>
       </c>
       <c r="E5">
-        <v>6.70611439842209</v>
+        <v>6.7061143984220903</v>
       </c>
       <c r="F5">
-        <v>8.678500986193294</v>
+        <v>8.6785009861932938</v>
       </c>
       <c r="G5">
-        <v>6.70611439842209</v>
+        <v>6.7061143984220903</v>
       </c>
       <c r="H5">
-        <v>7.100591715976331</v>
+        <v>7.1005917159763312</v>
       </c>
       <c r="I5">
-        <v>10.25641025641026</v>
+        <v>10.256410256410261</v>
       </c>
       <c r="J5">
-        <v>8.875739644970414</v>
+        <v>8.8757396449704142</v>
       </c>
       <c r="K5">
-        <v>11.04536489151874</v>
+        <v>11.045364891518741</v>
       </c>
       <c r="L5">
-        <v>8.481262327416173</v>
+        <v>8.4812623274161734</v>
       </c>
       <c r="M5">
-        <v>6.11439842209073</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+        <v>6.1143984220907299</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -585,50 +626,48 @@
         <v>11.2</v>
       </c>
       <c r="C6">
-        <v>9.066666666666666</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="D6">
-        <v>10.13333333333333</v>
+        <v>10.133333333333329</v>
       </c>
       <c r="E6">
-        <v>10.13333333333333</v>
+        <v>10.133333333333329</v>
       </c>
       <c r="F6">
-        <v>9.066666666666666</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="G6">
-        <v>8.533333333333333</v>
+        <v>8.5333333333333332</v>
       </c>
       <c r="H6">
-        <v>8.266666666666666</v>
+        <v>8.2666666666666657</v>
       </c>
       <c r="I6">
-        <v>3.733333333333334</v>
+        <v>3.7333333333333338</v>
       </c>
       <c r="J6">
-        <v>5.600000000000001</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="K6">
         <v>8</v>
       </c>
       <c r="L6">
-        <v>9.866666666666667</v>
+        <v>9.8666666666666671</v>
       </c>
       <c r="M6">
         <v>6.4</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.433734939759036</v>
+        <v>8.4337349397590362</v>
       </c>
       <c r="C7">
         <v>18.07228915662651</v>
@@ -640,76 +679,70 @@
         <v>10.8433734939759</v>
       </c>
       <c r="H7">
-        <v>7.228915662650602</v>
+        <v>7.2289156626506017</v>
       </c>
       <c r="I7">
         <v>6.024096385542169</v>
       </c>
       <c r="J7">
-        <v>2.409638554216868</v>
+        <v>2.4096385542168681</v>
       </c>
       <c r="K7">
         <v>14.4578313253012</v>
       </c>
       <c r="L7">
-        <v>7.228915662650602</v>
+        <v>7.2289156626506017</v>
       </c>
       <c r="M7">
         <v>14.4578313253012</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7.428571428571429</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>18.28571428571428</v>
+        <v>18.285714285714281</v>
       </c>
       <c r="E10">
-        <v>17.71428571428571</v>
+        <v>17.714285714285712</v>
       </c>
       <c r="F10">
-        <v>10.28571428571428</v>
+        <v>10.285714285714279</v>
       </c>
       <c r="G10">
-        <v>6.857142857142858</v>
+        <v>6.8571428571428577</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
-        <v>4.571428571428571</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="J10">
         <v>2.285714285714286</v>
@@ -718,29 +751,27 @@
         <v>1.714285714285714</v>
       </c>
       <c r="L10">
-        <v>5.714285714285714</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="M10">
-        <v>5.142857142857142</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+        <v>5.1428571428571423</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.525862068965517</v>
+        <v>4.5258620689655169</v>
       </c>
       <c r="C11">
-        <v>6.46551724137931</v>
+        <v>6.4655172413793096</v>
       </c>
       <c r="D11">
-        <v>9.698275862068966</v>
+        <v>9.6982758620689662</v>
       </c>
       <c r="E11">
         <v>16.81034482758621</v>
@@ -749,33 +780,31 @@
         <v>11.63793103448276</v>
       </c>
       <c r="G11">
-        <v>7.758620689655173</v>
+        <v>7.7586206896551726</v>
       </c>
       <c r="H11">
         <v>7.112068965517242</v>
       </c>
       <c r="I11">
-        <v>7.327586206896551</v>
+        <v>7.3275862068965507</v>
       </c>
       <c r="J11">
-        <v>7.758620689655173</v>
+        <v>7.7586206896551726</v>
       </c>
       <c r="K11">
-        <v>6.896551724137931</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="L11">
-        <v>7.758620689655173</v>
+        <v>7.7586206896551726</v>
       </c>
       <c r="M11">
         <v>6.25</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -783,68 +812,66 @@
         <v>11.29707112970711</v>
       </c>
       <c r="C12">
-        <v>6.276150627615062</v>
+        <v>6.2761506276150616</v>
       </c>
       <c r="D12">
         <v>11.71548117154812</v>
       </c>
       <c r="E12">
-        <v>7.949790794979079</v>
+        <v>7.9497907949790791</v>
       </c>
       <c r="F12">
         <v>12.13389121338912</v>
       </c>
       <c r="G12">
-        <v>7.112970711297072</v>
+        <v>7.1129707112970717</v>
       </c>
       <c r="H12">
         <v>10.0418410041841</v>
       </c>
       <c r="I12">
-        <v>8.786610878661087</v>
+        <v>8.7866108786610866</v>
       </c>
       <c r="J12">
-        <v>4.184100418410042</v>
+        <v>4.1841004184100417</v>
       </c>
       <c r="K12">
-        <v>3.765690376569038</v>
+        <v>3.7656903765690379</v>
       </c>
       <c r="L12">
-        <v>8.786610878661087</v>
+        <v>8.7866108786610866</v>
       </c>
       <c r="M12">
-        <v>7.949790794979079</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+        <v>7.9497907949790791</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.474820143884892</v>
+        <v>6.4748201438848918</v>
       </c>
       <c r="C13">
-        <v>5.035971223021583</v>
+        <v>5.0359712230215834</v>
       </c>
       <c r="D13">
-        <v>2.158273381294964</v>
+        <v>2.1582733812949639</v>
       </c>
       <c r="E13">
-        <v>13.66906474820144</v>
+        <v>13.669064748201439</v>
       </c>
       <c r="F13">
-        <v>7.913669064748201</v>
+        <v>7.9136690647482011</v>
       </c>
       <c r="G13">
-        <v>8.633093525179856</v>
+        <v>8.6330935251798557</v>
       </c>
       <c r="H13">
-        <v>10.79136690647482</v>
+        <v>10.791366906474821</v>
       </c>
       <c r="I13">
         <v>2.877697841726619</v>
@@ -853,7 +880,7 @@
         <v>5.755395683453238</v>
       </c>
       <c r="K13">
-        <v>8.633093525179856</v>
+        <v>8.6330935251798557</v>
       </c>
       <c r="L13">
         <v>15.10791366906475</v>
@@ -861,18 +888,16 @@
       <c r="M13">
         <v>12.94964028776978</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2000-2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>6.532663316582915</v>
+        <v>6.5326633165829149</v>
       </c>
       <c r="C14">
         <v>5.025125628140704</v>
@@ -887,102 +912,98 @@
         <v>11.05527638190955</v>
       </c>
       <c r="G14">
-        <v>8.040201005025125</v>
+        <v>8.0402010050251249</v>
       </c>
       <c r="H14">
-        <v>11.55778894472362</v>
+        <v>11.557788944723621</v>
       </c>
       <c r="I14">
-        <v>12.06030150753769</v>
+        <v>12.060301507537689</v>
       </c>
       <c r="J14">
-        <v>6.532663316582915</v>
+        <v>6.5326633165829149</v>
       </c>
       <c r="K14">
         <v>5.025125628140704</v>
       </c>
       <c r="L14">
-        <v>8.040201005025125</v>
+        <v>8.0402010050251249</v>
       </c>
       <c r="M14">
         <v>5.025125628140704</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>4.975124378109453</v>
+        <v>4.9751243781094532</v>
       </c>
       <c r="C15">
-        <v>6.965174129353234</v>
+        <v>6.9651741293532341</v>
       </c>
       <c r="D15">
-        <v>3.980099502487562</v>
+        <v>3.9800995024875618</v>
       </c>
       <c r="E15">
-        <v>9.950248756218906</v>
+        <v>9.9502487562189064</v>
       </c>
       <c r="F15">
-        <v>12.43781094527363</v>
+        <v>12.437810945273631</v>
       </c>
       <c r="G15">
         <v>10.44776119402985</v>
       </c>
       <c r="H15">
-        <v>11.94029850746269</v>
+        <v>11.940298507462691</v>
       </c>
       <c r="I15">
         <v>11.44278606965174</v>
       </c>
       <c r="J15">
-        <v>7.960199004975125</v>
+        <v>7.9601990049751246</v>
       </c>
       <c r="K15">
-        <v>4.477611940298507</v>
+        <v>4.4776119402985071</v>
       </c>
       <c r="L15">
         <v>10.44776119402985</v>
       </c>
       <c r="M15">
-        <v>4.975124378109453</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+        <v>4.9751243781094532</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>8.888888888888889</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>3.555555555555555</v>
+        <v>3.5555555555555549</v>
       </c>
       <c r="E16">
-        <v>4.888888888888889</v>
+        <v>4.8888888888888893</v>
       </c>
       <c r="F16">
-        <v>4.444444444444445</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="G16">
-        <v>5.777777777777778</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="H16">
-        <v>9.777777777777779</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="I16">
         <v>8</v>
@@ -997,15 +1018,13 @@
         <v>13.77777777777778</v>
       </c>
       <c r="M16">
-        <v>9.333333333333334</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1013,62 +1032,60 @@
         <v>12.56410256410256</v>
       </c>
       <c r="C17">
-        <v>11.02564102564103</v>
+        <v>11.025641025641031</v>
       </c>
       <c r="D17">
         <v>10.76923076923077</v>
       </c>
       <c r="E17">
-        <v>7.179487179487179</v>
+        <v>7.1794871794871788</v>
       </c>
       <c r="F17">
-        <v>6.923076923076923</v>
+        <v>6.9230769230769234</v>
       </c>
       <c r="G17">
-        <v>3.076923076923077</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="H17">
         <v>7.948717948717948</v>
       </c>
       <c r="I17">
-        <v>6.41025641025641</v>
+        <v>6.4102564102564097</v>
       </c>
       <c r="J17">
-        <v>4.102564102564102</v>
+        <v>4.1025641025641022</v>
       </c>
       <c r="K17">
-        <v>9.487179487179487</v>
+        <v>9.4871794871794872</v>
       </c>
       <c r="L17">
-        <v>12.05128205128205</v>
+        <v>12.051282051282049</v>
       </c>
       <c r="M17">
-        <v>8.461538461538462</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>8.4615384615384617</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>7.881773399014778</v>
+        <v>7.8817733990147776</v>
       </c>
       <c r="C18">
-        <v>4.433497536945813</v>
+        <v>4.4334975369458132</v>
       </c>
       <c r="D18">
-        <v>11.82266009852217</v>
+        <v>11.822660098522171</v>
       </c>
       <c r="E18">
-        <v>12.31527093596059</v>
+        <v>12.315270935960591</v>
       </c>
       <c r="F18">
-        <v>5.911330049261084</v>
+        <v>5.9113300492610836</v>
       </c>
       <c r="G18">
         <v>12.80788177339902</v>
@@ -1077,73 +1094,69 @@
         <v>7.389162561576355</v>
       </c>
       <c r="I18">
-        <v>8.866995073891626</v>
+        <v>8.8669950738916263</v>
       </c>
       <c r="J18">
-        <v>9.35960591133005</v>
+        <v>9.3596059113300498</v>
       </c>
       <c r="K18">
         <v>6.403940886699508</v>
       </c>
       <c r="L18">
-        <v>5.41871921182266</v>
+        <v>5.4187192118226601</v>
       </c>
       <c r="M18">
         <v>7.389162561576355</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>8.096280087527353</v>
+        <v>8.0962800875273526</v>
       </c>
       <c r="C19">
-        <v>2.62582056892779</v>
+        <v>2.6258205689277898</v>
       </c>
       <c r="D19">
-        <v>6.783369803063458</v>
+        <v>6.7833698030634579</v>
       </c>
       <c r="E19">
         <v>10.72210065645514</v>
       </c>
       <c r="F19">
-        <v>10.94091903719912</v>
+        <v>10.940919037199119</v>
       </c>
       <c r="G19">
-        <v>5.25164113785558</v>
+        <v>5.2516411378555796</v>
       </c>
       <c r="H19">
-        <v>7.439824945295405</v>
+        <v>7.4398249452954053</v>
       </c>
       <c r="I19">
-        <v>11.59737417943107</v>
+        <v>11.597374179431069</v>
       </c>
       <c r="J19">
-        <v>7.439824945295405</v>
+        <v>7.4398249452954053</v>
       </c>
       <c r="K19">
-        <v>6.783369803063458</v>
+        <v>6.7833698030634579</v>
       </c>
       <c r="L19">
         <v>10.72210065645514</v>
       </c>
       <c r="M19">
-        <v>11.59737417943107</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+        <v>11.597374179431069</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1151,7 +1164,7 @@
         <v>14.08450704225352</v>
       </c>
       <c r="C20">
-        <v>9.859154929577464</v>
+        <v>9.8591549295774641</v>
       </c>
       <c r="D20">
         <v>14.08450704225352</v>
@@ -1160,29 +1173,27 @@
         <v>18.30985915492958</v>
       </c>
       <c r="F20">
-        <v>16.90140845070422</v>
+        <v>16.901408450704221</v>
       </c>
       <c r="G20">
         <v>11.26760563380282</v>
       </c>
       <c r="H20">
-        <v>5.633802816901409</v>
+        <v>5.6338028169014089</v>
       </c>
       <c r="M20">
-        <v>9.859154929577464</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+        <v>9.8591549295774641</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21">
-        <v>18.66666666666667</v>
+        <v>18.666666666666671</v>
       </c>
       <c r="C21">
         <v>10.66666666666667</v>
@@ -1205,98 +1216,92 @@
       <c r="M21">
         <v>13.33333333333333</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22">
-        <v>5.309734513274337</v>
+        <v>5.3097345132743374</v>
       </c>
       <c r="C22">
-        <v>8.849557522123893</v>
+        <v>8.8495575221238933</v>
       </c>
       <c r="D22">
-        <v>7.079646017699115</v>
+        <v>7.0796460176991154</v>
       </c>
       <c r="E22">
-        <v>22.12389380530973</v>
+        <v>22.123893805309731</v>
       </c>
       <c r="F22">
         <v>19.46902654867257</v>
       </c>
       <c r="G22">
-        <v>15.04424778761062</v>
+        <v>15.044247787610621</v>
       </c>
       <c r="H22">
-        <v>6.194690265486726</v>
+        <v>6.1946902654867264</v>
       </c>
       <c r="I22">
-        <v>3.539823008849558</v>
+        <v>3.5398230088495581</v>
       </c>
       <c r="K22">
-        <v>7.964601769911504</v>
+        <v>7.9646017699115044</v>
       </c>
       <c r="L22">
-        <v>4.424778761061947</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+        <v>4.4247787610619467</v>
+      </c>
+      <c r="N22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="C23">
-        <v>10.29411764705882</v>
+        <v>10.294117647058821</v>
       </c>
       <c r="D23">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="E23">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="F23">
-        <v>10.29411764705882</v>
+        <v>10.294117647058821</v>
       </c>
       <c r="G23">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="H23">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="I23">
         <v>11.76470588235294</v>
       </c>
       <c r="J23">
-        <v>10.29411764705882</v>
+        <v>10.294117647058821</v>
       </c>
       <c r="K23">
-        <v>19.11764705882353</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+        <v>19.117647058823529</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24">
-        <v>6.488549618320611</v>
+        <v>6.4885496183206106</v>
       </c>
       <c r="C24">
         <v>11.06870229007634</v>
@@ -1305,39 +1310,37 @@
         <v>8.778625954198473</v>
       </c>
       <c r="E24">
-        <v>8.396946564885496</v>
+        <v>8.3969465648854964</v>
       </c>
       <c r="F24">
-        <v>9.16030534351145</v>
+        <v>9.1603053435114496</v>
       </c>
       <c r="G24">
-        <v>7.633587786259542</v>
+        <v>7.6335877862595423</v>
       </c>
       <c r="H24">
-        <v>7.633587786259542</v>
+        <v>7.6335877862595423</v>
       </c>
       <c r="I24">
         <v>8.778625954198473</v>
       </c>
       <c r="J24">
-        <v>8.396946564885496</v>
+        <v>8.3969465648854964</v>
       </c>
       <c r="K24">
         <v>12.21374045801527</v>
       </c>
       <c r="L24">
-        <v>6.870229007633588</v>
+        <v>6.8702290076335881</v>
       </c>
       <c r="M24">
-        <v>4.580152671755725</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+        <v>4.5801526717557248</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>18.88888888888889</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="F25">
         <v>6.666666666666667</v>
@@ -1360,10 +1363,10 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H25">
-        <v>7.777777777777778</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="I25">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="J25">
         <v>6.666666666666667</v>
@@ -1375,87 +1378,83 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M25">
-        <v>14.44444444444444</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2005-2009</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+        <v>14.444444444444439</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>8.035714285714286</v>
+        <v>8.0357142857142865</v>
       </c>
       <c r="C26">
-        <v>4.910714285714286</v>
+        <v>4.9107142857142856</v>
       </c>
       <c r="D26">
-        <v>4.910714285714286</v>
+        <v>4.9107142857142856</v>
       </c>
       <c r="E26">
-        <v>5.803571428571429</v>
+        <v>5.8035714285714288</v>
       </c>
       <c r="F26">
-        <v>8.035714285714286</v>
+        <v>8.0357142857142865</v>
       </c>
       <c r="G26">
-        <v>4.464285714285714</v>
+        <v>4.4642857142857144</v>
       </c>
       <c r="H26">
-        <v>8.482142857142858</v>
+        <v>8.4821428571428577</v>
       </c>
       <c r="I26">
         <v>11.16071428571429</v>
       </c>
       <c r="J26">
-        <v>15.17857142857143</v>
+        <v>15.178571428571431</v>
       </c>
       <c r="K26">
         <v>10.71428571428571</v>
       </c>
       <c r="L26">
-        <v>8.482142857142858</v>
+        <v>8.4821428571428577</v>
       </c>
       <c r="M26">
-        <v>9.821428571428571</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+        <v>9.8214285714285712</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>4.741379310344827</v>
+        <v>4.7413793103448274</v>
       </c>
       <c r="C27">
         <v>10.77586206896552</v>
       </c>
       <c r="D27">
-        <v>9.051724137931034</v>
+        <v>9.0517241379310338</v>
       </c>
       <c r="E27">
-        <v>9.913793103448276</v>
+        <v>9.9137931034482758</v>
       </c>
       <c r="F27">
         <v>10.3448275862069</v>
       </c>
       <c r="H27">
-        <v>2.586206896551724</v>
+        <v>2.5862068965517242</v>
       </c>
       <c r="I27">
         <v>10.77586206896552</v>
       </c>
       <c r="J27">
-        <v>7.758620689655173</v>
+        <v>7.7586206896551726</v>
       </c>
       <c r="K27">
         <v>10.77586206896552</v>
@@ -1466,96 +1465,90 @@
       <c r="M27">
         <v>10.77586206896552</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
-        <v>9.45945945945946</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="C28">
-        <v>9.45945945945946</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="D28">
-        <v>8.108108108108109</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="G28">
         <v>6.756756756756757</v>
       </c>
       <c r="H28">
-        <v>10.81081081081081</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="I28">
         <v>14.86486486486486</v>
       </c>
       <c r="J28">
-        <v>10.81081081081081</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="K28">
         <v>12.16216216216216</v>
       </c>
       <c r="L28">
-        <v>10.81081081081081</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="M28">
         <v>6.756756756756757</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29">
-        <v>22.34042553191489</v>
+        <v>22.340425531914889</v>
       </c>
       <c r="C29">
-        <v>6.382978723404255</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="D29">
-        <v>10.63829787234043</v>
+        <v>10.638297872340431</v>
       </c>
       <c r="E29">
         <v>12.76595744680851</v>
       </c>
       <c r="F29">
-        <v>6.382978723404255</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="G29">
-        <v>4.25531914893617</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="I29">
         <v>3.191489361702128</v>
       </c>
       <c r="J29">
-        <v>6.382978723404255</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="K29">
-        <v>9.574468085106384</v>
+        <v>9.5744680851063837</v>
       </c>
       <c r="L29">
-        <v>10.63829787234043</v>
+        <v>10.638297872340431</v>
       </c>
       <c r="M29">
-        <v>7.446808510638298</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+        <v>7.4468085106382977</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1569,13 +1562,13 @@
         <v>11.47540983606557</v>
       </c>
       <c r="E30">
-        <v>8.196721311475409</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="F30">
         <v>21.31147540983606</v>
       </c>
       <c r="G30">
-        <v>8.196721311475409</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="H30">
         <v>6.557377049180328</v>
@@ -1584,7 +1577,7 @@
         <v>3.278688524590164</v>
       </c>
       <c r="K30">
-        <v>14.75409836065574</v>
+        <v>14.754098360655741</v>
       </c>
       <c r="L30">
         <v>3.278688524590164</v>
@@ -1592,37 +1585,33 @@
       <c r="M30">
         <v>6.557377049180328</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32">
-        <v>8.737864077669903</v>
+        <v>8.7378640776699026</v>
       </c>
       <c r="C32">
-        <v>12.62135922330097</v>
+        <v>12.621359223300971</v>
       </c>
       <c r="D32">
-        <v>8.737864077669903</v>
+        <v>8.7378640776699026</v>
       </c>
       <c r="E32">
-        <v>6.796116504854369</v>
+        <v>6.7961165048543686</v>
       </c>
       <c r="F32">
         <v>15.53398058252427</v>
@@ -1631,30 +1620,28 @@
         <v>5.825242718446602</v>
       </c>
       <c r="H32">
-        <v>7.766990291262135</v>
+        <v>7.7669902912621351</v>
       </c>
       <c r="I32">
-        <v>6.796116504854369</v>
+        <v>6.7961165048543686</v>
       </c>
       <c r="J32">
-        <v>6.796116504854369</v>
+        <v>6.7961165048543686</v>
       </c>
       <c r="K32">
-        <v>4.854368932038835</v>
+        <v>4.8543689320388346</v>
       </c>
       <c r="L32">
-        <v>4.854368932038835</v>
+        <v>4.8543689320388346</v>
       </c>
       <c r="M32">
-        <v>10.67961165048544</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+        <v>10.679611650485439</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1662,7 +1649,7 @@
         <v>12.09964412811388</v>
       </c>
       <c r="C33">
-        <v>5.338078291814947</v>
+        <v>5.3380782918149468</v>
       </c>
       <c r="D33">
         <v>8.185053380782918</v>
@@ -1671,90 +1658,86 @@
         <v>12.09964412811388</v>
       </c>
       <c r="F33">
-        <v>5.338078291814947</v>
+        <v>5.3380782918149468</v>
       </c>
       <c r="G33">
         <v>13.52313167259787</v>
       </c>
       <c r="H33">
-        <v>9.608540925266903</v>
+        <v>9.6085409252669027</v>
       </c>
       <c r="I33">
-        <v>6.761565836298933</v>
+        <v>6.7615658362989333</v>
       </c>
       <c r="J33">
-        <v>6.049822064056939</v>
+        <v>6.0498220640569391</v>
       </c>
       <c r="K33">
-        <v>6.049822064056939</v>
+        <v>6.0498220640569391</v>
       </c>
       <c r="L33">
-        <v>7.11743772241993</v>
+        <v>7.1174377224199299</v>
       </c>
       <c r="M33">
-        <v>7.829181494661921</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+        <v>7.8291814946619214</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34">
-        <v>4.263565891472868</v>
+        <v>4.2635658914728678</v>
       </c>
       <c r="C34">
-        <v>2.713178294573643</v>
+        <v>2.7131782945736429</v>
       </c>
       <c r="D34">
-        <v>8.527131782945736</v>
+        <v>8.5271317829457356</v>
       </c>
       <c r="E34">
-        <v>9.689922480620156</v>
+        <v>9.6899224806201563</v>
       </c>
       <c r="F34">
-        <v>18.21705426356589</v>
+        <v>18.217054263565888</v>
       </c>
       <c r="G34">
         <v>13.95348837209302</v>
       </c>
       <c r="H34">
-        <v>7.364341085271318</v>
+        <v>7.3643410852713176</v>
       </c>
       <c r="I34">
-        <v>8.914728682170542</v>
+        <v>8.9147286821705425</v>
       </c>
       <c r="J34">
-        <v>6.976744186046512</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="K34">
-        <v>8.527131782945736</v>
+        <v>8.5271317829457356</v>
       </c>
       <c r="L34">
-        <v>7.364341085271318</v>
+        <v>7.3643410852713176</v>
       </c>
       <c r="M34">
-        <v>3.488372093023256</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+        <v>3.4883720930232558</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>9.75609756097561</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="F35">
-        <v>19.51219512195122</v>
+        <v>19.512195121951219</v>
       </c>
       <c r="G35">
         <v>21.95121951219512</v>
@@ -1763,29 +1746,27 @@
         <v>14.63414634146341</v>
       </c>
       <c r="I35">
-        <v>17.07317073170732</v>
+        <v>17.073170731707322</v>
       </c>
       <c r="J35">
-        <v>4.878048780487805</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="M35">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+        <v>12.195121951219511</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36">
-        <v>6.818181818181817</v>
+        <v>6.8181818181818166</v>
       </c>
       <c r="C36">
-        <v>4.090909090909091</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="D36">
         <v>11.36363636363636</v>
@@ -1794,7 +1775,7 @@
         <v>10.90909090909091</v>
       </c>
       <c r="F36">
-        <v>8.181818181818182</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -1806,75 +1787,71 @@
         <v>13.63636363636363</v>
       </c>
       <c r="J36">
-        <v>7.272727272727272</v>
+        <v>7.2727272727272716</v>
       </c>
       <c r="K36">
-        <v>5.909090909090909</v>
+        <v>5.9090909090909092</v>
       </c>
       <c r="L36">
-        <v>3.181818181818182</v>
+        <v>3.1818181818181821</v>
       </c>
       <c r="M36">
-        <v>6.363636363636363</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+        <v>6.3636363636363633</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>8.571428571428571</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="C37">
-        <v>7.809523809523809</v>
+        <v>7.8095238095238093</v>
       </c>
       <c r="D37">
         <v>11.61904761904762</v>
       </c>
       <c r="E37">
-        <v>3.80952380952381</v>
+        <v>3.8095238095238102</v>
       </c>
       <c r="F37">
-        <v>8.761904761904763</v>
+        <v>8.7619047619047628</v>
       </c>
       <c r="G37">
-        <v>7.428571428571429</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="H37">
-        <v>8.952380952380953</v>
+        <v>8.9523809523809526</v>
       </c>
       <c r="I37">
-        <v>8.761904761904763</v>
+        <v>8.7619047619047628</v>
       </c>
       <c r="J37">
-        <v>10.28571428571428</v>
+        <v>10.285714285714279</v>
       </c>
       <c r="K37">
-        <v>8.761904761904763</v>
+        <v>8.7619047619047628</v>
       </c>
       <c r="L37">
-        <v>7.61904761904762</v>
+        <v>7.6190476190476204</v>
       </c>
       <c r="M37">
-        <v>7.61904761904762</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+        <v>7.6190476190476204</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>6.875000000000001</v>
+        <v>6.8750000000000009</v>
       </c>
       <c r="C38">
         <v>5.625</v>
@@ -1889,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>6.875000000000001</v>
+        <v>6.8750000000000009</v>
       </c>
       <c r="H38">
         <v>6.25</v>
@@ -1901,7 +1878,7 @@
         <v>6.25</v>
       </c>
       <c r="K38">
-        <v>6.875000000000001</v>
+        <v>6.8750000000000009</v>
       </c>
       <c r="L38">
         <v>9.375</v>
@@ -1909,13 +1886,11 @@
       <c r="M38">
         <v>10.625</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1923,31 +1898,31 @@
         <v>7.878787878787878</v>
       </c>
       <c r="C39">
-        <v>2.424242424242424</v>
+        <v>2.4242424242424239</v>
       </c>
       <c r="D39">
-        <v>6.060606060606061</v>
+        <v>6.0606060606060614</v>
       </c>
       <c r="E39">
-        <v>7.272727272727272</v>
+        <v>7.2727272727272716</v>
       </c>
       <c r="F39">
         <v>7.878787878787878</v>
       </c>
       <c r="G39">
-        <v>9.696969696969697</v>
+        <v>9.6969696969696972</v>
       </c>
       <c r="H39">
-        <v>10.3030303030303</v>
+        <v>10.303030303030299</v>
       </c>
       <c r="I39">
         <v>7.878787878787878</v>
       </c>
       <c r="J39">
-        <v>9.696969696969697</v>
+        <v>9.6969696969696972</v>
       </c>
       <c r="K39">
-        <v>9.090909090909092</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="L39">
         <v>10.90909090909091</v>
@@ -1955,42 +1930,40 @@
       <c r="M39">
         <v>10.90909090909091</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>12.63157894736842</v>
+        <v>12.631578947368419</v>
       </c>
       <c r="C40">
-        <v>9.473684210526317</v>
+        <v>9.4736842105263168</v>
       </c>
       <c r="D40">
-        <v>9.473684210526317</v>
+        <v>9.4736842105263168</v>
       </c>
       <c r="E40">
-        <v>6.315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="F40">
-        <v>6.315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="G40">
-        <v>6.315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="H40">
-        <v>5.263157894736842</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="I40">
-        <v>6.315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="J40">
-        <v>6.315789473684211</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="K40">
         <v>10.52631578947368</v>
@@ -2001,21 +1974,19 @@
       <c r="M40">
         <v>10.52631578947368</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>9.523809523809524</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="H41">
-        <v>9.523809523809524</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="I41">
         <v>23.80952380952381</v>
@@ -2024,115 +1995,109 @@
         <v>23.80952380952381</v>
       </c>
       <c r="L41">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>2.941176470588235</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="C42">
-        <v>3.92156862745098</v>
+        <v>3.9215686274509798</v>
       </c>
       <c r="D42">
-        <v>9.803921568627452</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="E42">
-        <v>4.901960784313726</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="F42">
-        <v>5.88235294117647</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="G42">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="H42">
-        <v>12.74509803921569</v>
+        <v>12.745098039215691</v>
       </c>
       <c r="I42">
         <v>11.76470588235294</v>
       </c>
       <c r="J42">
-        <v>13.72549019607843</v>
+        <v>13.725490196078431</v>
       </c>
       <c r="K42">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="L42">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="M42">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+        <v>7.8431372549019596</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
-        <v>7.853403141361256</v>
+        <v>7.8534031413612562</v>
       </c>
       <c r="C43">
-        <v>7.329842931937172</v>
+        <v>7.3298429319371721</v>
       </c>
       <c r="D43">
-        <v>9.424083769633508</v>
+        <v>9.4240837696335085</v>
       </c>
       <c r="E43">
-        <v>9.424083769633508</v>
+        <v>9.4240837696335085</v>
       </c>
       <c r="F43">
         <v>11.51832460732984</v>
       </c>
       <c r="G43">
-        <v>4.18848167539267</v>
+        <v>4.1884816753926701</v>
       </c>
       <c r="H43">
-        <v>9.947643979057592</v>
+        <v>9.9476439790575917</v>
       </c>
       <c r="I43">
-        <v>7.853403141361256</v>
+        <v>7.8534031413612562</v>
       </c>
       <c r="J43">
-        <v>5.759162303664922</v>
+        <v>5.7591623036649224</v>
       </c>
       <c r="K43">
         <v>10.47120418848167</v>
       </c>
       <c r="L43">
-        <v>8.37696335078534</v>
+        <v>8.3769633507853403</v>
       </c>
       <c r="M43">
-        <v>7.853403141361256</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+        <v>7.8534031413612562</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
       <c r="B44">
-        <v>6.153846153846154</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="C44">
-        <v>9.230769230769232</v>
+        <v>9.2307692307692317</v>
       </c>
       <c r="D44">
         <v>10.76923076923077</v>
@@ -2144,16 +2109,16 @@
         <v>10.76923076923077</v>
       </c>
       <c r="G44">
-        <v>7.692307692307693</v>
+        <v>7.6923076923076934</v>
       </c>
       <c r="H44">
         <v>13.84615384615385</v>
       </c>
       <c r="I44">
-        <v>3.076923076923077</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="J44">
-        <v>7.692307692307693</v>
+        <v>7.6923076923076934</v>
       </c>
       <c r="K44">
         <v>1.538461538461539</v>
@@ -2164,64 +2129,60 @@
       <c r="M44">
         <v>13.84615384615385</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
       <c r="B45">
-        <v>8.045977011494253</v>
+        <v>8.0459770114942533</v>
       </c>
       <c r="C45">
-        <v>8.045977011494253</v>
+        <v>8.0459770114942533</v>
       </c>
       <c r="D45">
-        <v>11.49425287356322</v>
+        <v>11.494252873563219</v>
       </c>
       <c r="E45">
-        <v>11.49425287356322</v>
+        <v>11.494252873563219</v>
       </c>
       <c r="F45">
         <v>12.26053639846743</v>
       </c>
       <c r="G45">
-        <v>9.195402298850574</v>
+        <v>9.1954022988505741</v>
       </c>
       <c r="H45">
         <v>10.3448275862069</v>
       </c>
       <c r="I45">
-        <v>6.513409961685824</v>
+        <v>6.5134099616858236</v>
       </c>
       <c r="J45">
-        <v>6.513409961685824</v>
+        <v>6.5134099616858236</v>
       </c>
       <c r="K45">
-        <v>4.597701149425287</v>
+        <v>4.5977011494252871</v>
       </c>
       <c r="L45">
-        <v>7.662835249042145</v>
+        <v>7.6628352490421454</v>
       </c>
       <c r="M45">
-        <v>3.831417624521073</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+        <v>3.8314176245210732</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46">
-        <v>5.990783410138248</v>
+        <v>5.9907834101382482</v>
       </c>
       <c r="C46">
         <v>1.84331797235023</v>
@@ -2230,7 +2191,7 @@
         <v>9.216589861751153</v>
       </c>
       <c r="E46">
-        <v>7.834101382488479</v>
+        <v>7.8341013824884786</v>
       </c>
       <c r="F46">
         <v>11.52073732718894</v>
@@ -2242,35 +2203,33 @@
         <v>11.52073732718894</v>
       </c>
       <c r="I46">
-        <v>10.59907834101383</v>
+        <v>10.599078341013829</v>
       </c>
       <c r="J46">
         <v>10.13824884792627</v>
       </c>
       <c r="K46">
-        <v>8.755760368663594</v>
+        <v>8.7557603686635943</v>
       </c>
       <c r="L46">
-        <v>2.764976958525346</v>
+        <v>2.7649769585253461</v>
       </c>
       <c r="M46">
-        <v>8.294930875576037</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+        <v>8.2949308755760374</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
       <c r="B47">
-        <v>9.558823529411764</v>
+        <v>9.5588235294117645</v>
       </c>
       <c r="C47">
-        <v>17.64705882352941</v>
+        <v>17.647058823529409</v>
       </c>
       <c r="D47">
         <v>11.76470588235294</v>
@@ -2279,392 +2238,74 @@
         <v>11.76470588235294</v>
       </c>
       <c r="F47">
-        <v>5.88235294117647</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="G47">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="H47">
-        <v>5.88235294117647</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="J47">
-        <v>5.88235294117647</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="K47">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="L47">
-        <v>7.352941176470589</v>
+        <v>7.3529411764705888</v>
       </c>
       <c r="M47">
-        <v>8.088235294117647</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+        <v>8.0882352941176467</v>
+      </c>
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
       <c r="B48">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="C48">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="D48">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E48">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F48">
-        <v>13.88888888888889</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="G48">
-        <v>13.88888888888889</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="H48">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="I48">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="J48">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="K48">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>5.797101449275362</v>
-      </c>
-      <c r="E50">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="F50">
-        <v>7.246376811594203</v>
-      </c>
-      <c r="G50">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="I50">
-        <v>11.59420289855072</v>
-      </c>
-      <c r="J50">
-        <v>14.49275362318841</v>
-      </c>
-      <c r="K50">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L50">
-        <v>14.49275362318841</v>
-      </c>
-      <c r="M50">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>12.28070175438596</v>
-      </c>
-      <c r="C51">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="D51">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="E51">
-        <v>8.771929824561402</v>
-      </c>
-      <c r="F51">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="H51">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="I51">
-        <v>14.03508771929824</v>
-      </c>
-      <c r="J51">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="K51">
-        <v>17.5438596491228</v>
-      </c>
-      <c r="L51">
-        <v>14.03508771929824</v>
-      </c>
-      <c r="M51">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>12.12121212121212</v>
-      </c>
-      <c r="D52">
-        <v>30.3030303030303</v>
-      </c>
-      <c r="E52">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="F52">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="G52">
-        <v>12.12121212121212</v>
-      </c>
-      <c r="L52">
-        <v>12.12121212121212</v>
-      </c>
-      <c r="M52">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K53">
-        <v>20</v>
-      </c>
-      <c r="L53">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="M53">
-        <v>40</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="C55">
-        <v>10.60606060606061</v>
-      </c>
-      <c r="D55">
-        <v>11.36363636363636</v>
-      </c>
-      <c r="E55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="F55">
-        <v>9.848484848484848</v>
-      </c>
-      <c r="G55">
-        <v>5.303030303030303</v>
-      </c>
-      <c r="H55">
-        <v>5.303030303030303</v>
-      </c>
-      <c r="I55">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="J55">
-        <v>6.818181818181817</v>
-      </c>
-      <c r="K55">
-        <v>12.87878787878788</v>
-      </c>
-      <c r="L55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="M55">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>7</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="E58">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="F58">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G58">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="H58">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="I58">
-        <v>8.888888888888889</v>
-      </c>
-      <c r="J58">
-        <v>15.55555555555556</v>
-      </c>
-      <c r="K58">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>19.04761904761905</v>
-      </c>
-      <c r="G59">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="H59">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="I59">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="K59">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>11</v>
-      </c>
-      <c r="B60">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="C60">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="E60">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="F60">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="G60">
-        <v>2.777777777777778</v>
-      </c>
-      <c r="I60">
-        <v>19.44444444444445</v>
-      </c>
-      <c r="J60">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="K60">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>12</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
+      <c r="N49" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
